--- a/ROA/ROA.xlsx
+++ b/ROA/ROA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mulgogi/src/ituob/service-publications-data/ROA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFCF40D-07A4-A144-84AE-4C3B322B7AE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837D6C8-DBAA-0141-9009-D583061BA777}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36660" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - ROA CSV files" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4550" uniqueCount="3585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4551" uniqueCount="3586">
   <si>
     <t>Tel</t>
   </si>
@@ -57,6 +57,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>g.noorzaie@moc.gov.af</t>
     </r>
@@ -78,6 +79,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>a.ramin@telesysint.com</t>
     </r>
@@ -99,6 +101,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sultan@arianatelecom.com.af</t>
     </r>
@@ -119,6 +122,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@ceretechs.com</t>
     </r>
@@ -127,6 +131,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -136,6 +141,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mina@ceretechs.com</t>
     </r>
@@ -159,6 +165,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kabulsupport@instatelecom.com</t>
     </r>
@@ -179,6 +186,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sgupta@io-global.com</t>
     </r>
@@ -199,6 +207,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@kbiafghanistan.com</t>
     </r>
@@ -207,6 +216,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -216,6 +226,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@io-global.com</t>
     </r>
@@ -237,6 +248,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>shakir@neda.af</t>
     </r>
@@ -257,6 +269,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@newdunia.com</t>
     </r>
@@ -265,6 +278,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -274,6 +288,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jnoorzai@yahoo.com</t>
     </r>
@@ -294,6 +309,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sabilatifi@yahoo.com</t>
     </r>
@@ -317,6 +333,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>samir.satchu@roshan.af</t>
     </r>
@@ -345,6 +362,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>contact@algerietelecom.dz</t>
     </r>
@@ -356,6 +374,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.algerietelecom.dz</t>
     </r>
@@ -382,6 +401,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>icherraqui@lacom.dz</t>
     </r>
@@ -407,6 +427,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>yasmine.debbouz@otalgerie.com</t>
     </r>
@@ -418,6 +439,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.otalgerie.com</t>
     </r>
@@ -443,6 +465,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mohamed.kaddour@wataniyaalgerie.com</t>
     </r>
@@ -454,6 +477,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.nedjma.dz</t>
     </r>
@@ -572,6 +596,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>eronco@arsat.com.ar</t>
     </r>
@@ -1647,6 +1672,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rodrjose@telefonica.com.ar</t>
     </r>
@@ -1658,6 +1684,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telefonica.com.ar</t>
     </r>
@@ -1830,6 +1857,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mevardanyan@beeline.am</t>
     </r>
@@ -1841,6 +1869,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.beeline.am</t>
     </r>
@@ -1866,6 +1895,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@ktelecom.am</t>
     </r>
@@ -1921,6 +1951,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>anil.kumar3@boeing.com</t>
     </r>
@@ -1932,6 +1963,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.boeing.com.au</t>
     </r>
@@ -1959,6 +1991,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.optus.com.au</t>
     </r>
@@ -1984,6 +2017,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>stewart.j.wallace@team.telstra.com</t>
     </r>
@@ -1995,6 +2029,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telstra.com</t>
     </r>
@@ -2021,6 +2056,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>customercare@azercell.com</t>
     </r>
@@ -2032,6 +2068,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.azercell.com</t>
     </r>
@@ -2055,6 +2092,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>aet@azeurotel.com</t>
     </r>
@@ -2066,6 +2104,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.azeurotel.com</t>
     </r>
@@ -2089,6 +2128,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>aztelecom@aztelecom.net</t>
     </r>
@@ -2100,6 +2140,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.aztelecom.com</t>
     </r>
@@ -2123,6 +2164,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>bakcell@bakcell.com</t>
     </r>
@@ -2134,6 +2176,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bakcell.com</t>
     </r>
@@ -2157,6 +2200,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.baktel.bakinter.net</t>
     </r>
@@ -2177,6 +2221,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>btrib@btrib.bakinter.net</t>
     </r>
@@ -2188,6 +2233,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.baktelecom.bakinter.net</t>
     </r>
@@ -2211,6 +2257,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>catel@catel-az.com</t>
     </r>
@@ -2222,6 +2269,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.catel-az.com</t>
     </r>
@@ -2245,6 +2293,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rabite@nakhchyvan.az</t>
     </r>
@@ -2256,6 +2305,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.nakhchyvan.az</t>
     </r>
@@ -2276,6 +2326,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ultelmmc@intrans.az</t>
     </r>
@@ -2287,6 +2338,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ultel.com</t>
     </r>
@@ -2330,6 +2382,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>fahad@2connectbahrain.com</t>
     </r>
@@ -2341,6 +2394,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.2conect.com</t>
     </r>
@@ -2365,6 +2419,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>saeed@ossisonline.com</t>
     </r>
@@ -2389,6 +2444,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cl5@btc.com.bh</t>
     </r>
@@ -2400,6 +2456,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.batelco.com.bh</t>
     </r>
@@ -2426,6 +2483,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@lbcn-bh.com</t>
     </r>
@@ -2437,6 +2495,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bcn-bh.com</t>
     </r>
@@ -2463,6 +2522,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ashoor@etisalcom.com</t>
     </r>
@@ -2474,6 +2534,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.etisalcom.com</t>
     </r>
@@ -2499,6 +2560,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tfakhroo@oftem.com</t>
     </r>
@@ -2524,6 +2586,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>e.alawi@icool.com</t>
     </r>
@@ -2548,6 +2611,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@kasiopia.com</t>
     </r>
@@ -2559,6 +2623,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.kasiopia.com</t>
     </r>
@@ -2584,6 +2649,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rachael@lightspeed.bh</t>
     </r>
@@ -2595,6 +2661,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.lightspeed.bh</t>
     </r>
@@ -2619,6 +2686,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>contact@tra.org.bh</t>
     </r>
@@ -2630,6 +2698,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tra.org.bh</t>
     </r>
@@ -2652,6 +2721,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@viacloud.com</t>
     </r>
@@ -2676,6 +2746,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>safwathanafi@hotmail.com</t>
     </r>
@@ -2702,6 +2773,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jaffar.abdulla@zain.com</t>
     </r>
@@ -2713,6 +2785,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bh.zain.com</t>
     </r>
@@ -2740,6 +2813,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>deits@bttb.net.bd</t>
     </r>
@@ -2765,6 +2839,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mahmud.hossain@grameenphone.com</t>
     </r>
@@ -2790,6 +2865,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>zakislam@banglalinkgsm.com</t>
     </r>
@@ -2819,6 +2895,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.candw.com.bb</t>
     </r>
@@ -2839,6 +2916,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.digicelgroup.com</t>
     </r>
@@ -2859,6 +2937,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jgreaves@telebarbados.com</t>
     </r>
@@ -2879,6 +2958,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>esachar@blue.bb</t>
     </r>
@@ -2905,6 +2985,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@best.by</t>
     </r>
@@ -2916,6 +2997,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.best.by</t>
     </r>
@@ -2939,6 +3021,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>diallog@diallog.by</t>
     </r>
@@ -2950,6 +3033,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.diallog.by</t>
     </r>
@@ -2973,6 +3057,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>pressa@velcom.by</t>
     </r>
@@ -2984,6 +3069,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.velcom.by</t>
     </r>
@@ -3007,6 +3093,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@mts.by</t>
     </r>
@@ -3018,6 +3105,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mts.by</t>
     </r>
@@ -3044,6 +3132,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>darlene_coye@btl.net</t>
     </r>
@@ -3055,6 +3144,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.btl.net</t>
     </r>
@@ -3078,6 +3168,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@benincell.com</t>
     </r>
@@ -3113,6 +3204,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>opt@intnet.bj</t>
     </r>
@@ -3133,6 +3225,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>contact@telecel-benin.com</t>
     </r>
@@ -3159,6 +3252,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>md@telecom.net.bt</t>
     </r>
@@ -3170,6 +3264,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telecom.net.bt</t>
     </r>
@@ -3212,6 +3307,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>elma.kadrispahic@tbhelecom.ba</t>
     </r>
@@ -3223,6 +3319,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bhtelecom.ba</t>
     </r>
@@ -3247,6 +3344,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>martin.bosnjak@ht.ba</t>
     </r>
@@ -3271,6 +3369,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>adrijana.jokanovic@mtel.ba</t>
     </r>
@@ -3282,6 +3381,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mtel.ba</t>
     </r>
@@ -3324,6 +3424,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tebogo.lebotse@MASCOM.bw</t>
     </r>
@@ -3335,6 +3436,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mascom.bw</t>
     </r>
@@ -3362,6 +3464,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>office-brazil@dd-international.com</t>
     </r>
@@ -3387,6 +3490,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>carlamc@embratel.com.br</t>
     </r>
@@ -3398,6 +3502,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.embratel.com.br</t>
     </r>
@@ -3426,6 +3531,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>janaina.gama@telemar.com.br</t>
     </r>
@@ -3470,6 +3576,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>emil.georgakiev@vivacom.bg</t>
     </r>
@@ -3481,6 +3588,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.btc.bg</t>
     </r>
@@ -3524,6 +3632,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ndarig@onatel.bi</t>
     </r>
@@ -3549,6 +3658,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>feliciten@leo.bi</t>
     </r>
@@ -3560,6 +3670,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.leo.bi</t>
     </r>
@@ -3586,6 +3697,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gcacvt@cvtelecom.cv</t>
     </r>
@@ -3614,6 +3726,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ieng-mptc@camnet.com.kh</t>
     </r>
@@ -3625,6 +3738,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mptc.gov.kh</t>
     </r>
@@ -3651,6 +3765,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>camtel@camnet.cm</t>
     </r>
@@ -3682,6 +3797,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>redouane.zidane@bell.ca</t>
     </r>
@@ -3693,6 +3809,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bell.ca</t>
     </r>
@@ -3733,6 +3850,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ed.oleary@rci.rogers.com</t>
     </r>
@@ -3757,6 +3875,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>henri.alexandre@tatacommunications.com</t>
     </r>
@@ -3768,6 +3887,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tatacommunications.com</t>
     </r>
@@ -3792,6 +3912,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ithiago@guevremont.com</t>
     </r>
@@ -3823,6 +3944,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>J.Forsey@telesat.ca</t>
     </r>
@@ -3848,6 +3970,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>serge.bertuzzo@telus.com</t>
     </r>
@@ -3889,6 +4012,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sava@intnet.cf</t>
     </r>
@@ -3900,6 +4024,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.socatel.intnet.cf</t>
     </r>
@@ -3927,6 +4052,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tahirtahiro@gmail.com</t>
     </r>
@@ -3952,6 +4078,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>wimvan@otelecom.com</t>
     </r>
@@ -3982,6 +4109,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mvelasquez@entel.cl</t>
     </r>
@@ -4007,6 +4135,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>clmunoz@ctc.cl</t>
     </r>
@@ -4036,6 +4165,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>phovstad@asiasat.com</t>
     </r>
@@ -4047,6 +4177,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.asiasat.com</t>
     </r>
@@ -4072,6 +4203,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>shaojunming@chinamobile.co</t>
     </r>
@@ -4083,6 +4215,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.chinamobile.com</t>
     </r>
@@ -4108,6 +4241,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>wanglh@china-netcom.com</t>
     </r>
@@ -4136,6 +4270,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>huangxp@chinatelecom.com.cn</t>
     </r>
@@ -4147,6 +4282,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.chinatelecom.com.cn</t>
     </r>
@@ -4177,6 +4313,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jiach@chinaunicom.com.cn</t>
     </r>
@@ -4188,6 +4325,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.chinaunicom.com.cn</t>
     </r>
@@ -4214,6 +4352,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>michaelsck@hgc.com.hk</t>
     </r>
@@ -4240,6 +4379,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>agnes.yw.lee@reach.com</t>
     </r>
@@ -4251,6 +4391,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.reach.com</t>
     </r>
@@ -4278,6 +4419,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tanagnes@wharftt.com</t>
     </r>
@@ -4289,6 +4431,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.wharftt.com</t>
     </r>
@@ -4318,6 +4461,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>alejandro.avila@telecom.net.co</t>
     </r>
@@ -4329,6 +4473,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telecom.com.co</t>
     </r>
@@ -4354,6 +4499,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>alfonso.gomez@telecom.net.co</t>
     </r>
@@ -4379,6 +4525,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>german.ariasp@etb.com.co</t>
     </r>
@@ -4390,6 +4537,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.etb.com.co</t>
     </r>
@@ -4415,6 +4563,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mgonzald@eeppm.com</t>
     </r>
@@ -4433,6 +4582,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>fpanesso@epmbog.com</t>
     </r>
@@ -4458,6 +4608,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>aceballos@orbitel.com</t>
     </r>
@@ -4486,6 +4637,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>snpt@snpt.km</t>
     </r>
@@ -4497,6 +4649,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.comorestelecom.km</t>
     </r>
@@ -4525,6 +4678,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sotelco@congonet.cg</t>
     </r>
@@ -4601,6 +4755,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>lcordero@racsa.co.cr</t>
     </r>
@@ -4612,6 +4767,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.racsa.co.cr</t>
     </r>
@@ -4640,6 +4796,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@telekom.hr</t>
     </r>
@@ -4651,6 +4808,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telekom.hr</t>
     </r>
@@ -4675,6 +4833,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>bernard.kovacevic@t-mobile.hr</t>
     </r>
@@ -4699,6 +4858,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>s.corkovic@vipnet.hr</t>
     </r>
@@ -4726,6 +4886,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>juanc@radiocuba.cu</t>
     </r>
@@ -4747,6 +4908,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>wreboredo@cubacel.cu</t>
     </r>
@@ -4774,6 +4936,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>nelson.benitez@etecsa.cu</t>
     </r>
@@ -4798,6 +4961,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>movitel@movitel.co.cu</t>
     </r>
@@ -4822,6 +4986,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cubacel@cubacel.com</t>
     </r>
@@ -4864,6 +5029,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gavriel.panis@cyta.com.cy</t>
     </r>
@@ -4875,6 +5041,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.cyta.com.cy</t>
     </r>
@@ -4900,6 +5067,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ththeodosis@prime-tel.com</t>
     </r>
@@ -4927,6 +5095,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>f.smejkal@radiokomunikace.cz</t>
     </r>
@@ -4938,6 +5107,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.radiokomunikace.cz</t>
     </r>
@@ -4962,6 +5132,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kontakt@nic.cz</t>
     </r>
@@ -4986,6 +5157,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>pavel.henke@gtsce.com</t>
     </r>
@@ -4997,6 +5169,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.gtsnovera.cz</t>
     </r>
@@ -5021,6 +5194,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>petr.dedek@o2.com</t>
     </r>
@@ -5032,6 +5206,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.cz.o2.com</t>
     </r>
@@ -5056,6 +5231,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>richard.stonavsky@t-mobile.cz</t>
     </r>
@@ -5080,6 +5256,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>petr.piskula@vodafone.com</t>
     </r>
@@ -5106,6 +5283,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.afripatelecom.net</t>
     </r>
@@ -5143,6 +5321,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.citelecom.ci</t>
     </r>
@@ -5165,6 +5344,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telecel.ci</t>
     </r>
@@ -5189,6 +5369,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>stephane.beuvelet@mtn.ci</t>
     </r>
@@ -5211,6 +5392,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.orange.ci</t>
     </r>
@@ -5234,6 +5416,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.prestige.ci</t>
     </r>
@@ -5262,6 +5445,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mptird@co.chesin.com</t>
     </r>
@@ -5290,6 +5474,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@scpt.cd</t>
     </r>
@@ -5317,6 +5502,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ib.hodgaard@motorola.com</t>
     </r>
@@ -5341,6 +5527,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>noudeja@acneuro.com</t>
     </r>
@@ -5365,6 +5552,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cen@cbb.dk</t>
     </r>
@@ -5389,6 +5577,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>redfern@cybercity.dk</t>
     </r>
@@ -5428,6 +5617,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>torben.bjerre@hi3gdenmark.dk</t>
     </r>
@@ -5452,6 +5642,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jj@nebelong.dk</t>
     </r>
@@ -5476,6 +5667,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>thorkil.sonne@migway.com</t>
     </r>
@@ -5500,6 +5692,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mr@mira.dk</t>
     </r>
@@ -5524,6 +5717,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>fmagner@primustel.dk</t>
     </r>
@@ -5548,6 +5742,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>hni@rslcom.dk</t>
     </r>
@@ -5572,6 +5767,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>stp@dmt.sonofon.dk</t>
     </r>
@@ -5605,6 +5801,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>john.topp@supertel.dk</t>
     </r>
@@ -5631,6 +5828,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>fbir@tdc.dk</t>
     </r>
@@ -5642,6 +5840,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tdc.dk</t>
     </r>
@@ -5666,6 +5865,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jmic@tdc.dk</t>
     </r>
@@ -5690,6 +5890,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jebj@tdc.dk</t>
     </r>
@@ -5714,6 +5915,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jhat@tdk.dk</t>
     </r>
@@ -5734,6 +5936,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>dha@tele1europe.dk</t>
     </r>
@@ -5758,6 +5961,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>michael.jackson@tele2.dk</t>
     </r>
@@ -5782,6 +5986,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>bh@telecomplus.dk</t>
     </r>
@@ -5806,6 +6011,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ctievsky@teleglobe.com</t>
     </r>
@@ -5830,6 +6036,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>lfh@telia.dk</t>
     </r>
@@ -5850,6 +6057,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jesper.andersen@teliasonera.com</t>
     </r>
@@ -5874,6 +6082,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ks@stofa.dk</t>
     </r>
@@ -5898,6 +6107,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mandersen@dk.tiscali.com</t>
     </r>
@@ -5939,6 +6149,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>djibouti_telecom@intnet.dj</t>
     </r>
@@ -5982,6 +6193,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>wanda_perdomo@codetel.com.do</t>
     </r>
@@ -5993,6 +6205,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.codetel.com.do</t>
     </r>
@@ -6034,6 +6247,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>etapadtt@etapa.com.ec</t>
     </r>
@@ -6062,6 +6276,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ataleb@alkantelecom.com</t>
     </r>
@@ -6073,6 +6288,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.alkantelecom.com</t>
     </r>
@@ -6098,6 +6314,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>esc@link.net</t>
     </r>
@@ -6123,6 +6340,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kgb@link.net</t>
     </r>
@@ -6134,6 +6352,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.link.net</t>
     </r>
@@ -6160,6 +6379,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>regulatory.affairs@te.eg</t>
     </r>
@@ -6171,6 +6391,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.te.eg</t>
     </r>
@@ -6198,6 +6419,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sissa@mobinil.com</t>
     </r>
@@ -6209,6 +6431,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mobinil.com</t>
     </r>
@@ -6234,6 +6457,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>nilesat@link.net</t>
     </r>
@@ -6245,6 +6469,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.nilesat.com.eg</t>
     </r>
@@ -6270,6 +6495,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mahmoud.elmogy@vodafone.com.eg</t>
     </r>
@@ -6281,6 +6507,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vodafone.com.eg</t>
     </r>
@@ -6310,6 +6537,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>agarcia@americatel.com.sv</t>
     </r>
@@ -6336,6 +6564,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>fsoto@amnetsal.com</t>
     </r>
@@ -6361,6 +6590,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>garay.roberto@telecom.com.sv</t>
     </r>
@@ -6385,6 +6615,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>teresa.barrientos@digicel.com</t>
     </r>
@@ -6409,6 +6640,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>antonio.safie@salnet.net</t>
     </r>
@@ -6434,6 +6666,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cabanillas@saltel.com</t>
     </r>
@@ -6473,6 +6706,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>bjaime@gcatelecom.com.sv</t>
     </r>
@@ -6497,6 +6731,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>erodas@skytech.com.sv</t>
     </r>
@@ -6522,6 +6757,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jcoreas@newcomamericas.net</t>
     </r>
@@ -6548,6 +6784,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>otilio.rodriguez@siget.gob.sv</t>
     </r>
@@ -6556,6 +6793,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -6565,6 +6803,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>siget@siget.gob.sv</t>
     </r>
@@ -6576,6 +6815,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.siget.gob.sv</t>
     </r>
@@ -6601,6 +6841,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>roberto.liach@telecam.net</t>
     </r>
@@ -6625,6 +6866,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mario.torres@telefonica.com.sv</t>
     </r>
@@ -6705,6 +6947,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>a.abate@telecom.net.et</t>
     </r>
@@ -6734,6 +6977,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>inquiries@fintelfiji.com</t>
     </r>
@@ -6745,6 +6989,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.fintelfiji.com</t>
     </r>
@@ -6769,6 +7014,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>contact@tfl.com.fj</t>
     </r>
@@ -6780,6 +7026,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telecomfiji.com.fi</t>
     </r>
@@ -6794,6 +7041,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ficora.fi/englanti/tele/operators.asp</t>
     </r>
@@ -6821,6 +7069,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>poste.dirposte@pa.sm</t>
     </r>
@@ -6832,6 +7081,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.opt.pf</t>
     </r>
@@ -6871,6 +7121,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gabontelecom@gabontelecom.ga</t>
     </r>
@@ -6879,6 +7130,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -6888,6 +7140,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>dircom@gabontelecom.ga</t>
     </r>
@@ -6911,6 +7164,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>commercial@internetgabon.com</t>
     </r>
@@ -6997,6 +7251,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>skhalil@africell.gm</t>
     </r>
@@ -7008,6 +7263,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.africell.gm</t>
     </r>
@@ -7033,6 +7289,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@gamtel.gm</t>
     </r>
@@ -7044,6 +7301,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.gamtel.gm</t>
     </r>
@@ -7088,6 +7346,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>susan-barbara.kumapley@vodafone.com</t>
     </r>
@@ -7099,6 +7358,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vodafone.com.gh</t>
     </r>
@@ -7122,6 +7382,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.eett.gr/eng_pages/index2n.htm</t>
     </r>
@@ -7130,6 +7391,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -7139,6 +7401,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.eett.gr/eng_pages/telec/adeiodotisi/epixeiriseis/compsearch/searchform.php</t>
     </r>
@@ -7180,6 +7443,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>david.barahona@hondutelnet.hn</t>
     </r>
@@ -7229,6 +7493,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>michael.shiu@hgc.com.hk</t>
     </r>
@@ -7255,6 +7520,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>office@mail.actel.hu</t>
     </r>
@@ -7266,6 +7532,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.actel.hu</t>
     </r>
@@ -7290,6 +7557,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>antennah@ahrt.hu</t>
     </r>
@@ -7301,6 +7569,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ahrt.hu</t>
     </r>
@@ -7325,6 +7594,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tunde.karika@bt.com</t>
     </r>
@@ -7336,6 +7606,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bt.com</t>
     </r>
@@ -7360,6 +7631,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>support@bellafone.hu</t>
     </r>
@@ -7371,6 +7643,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bellafone.hu</t>
     </r>
@@ -7396,6 +7669,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>dispecser@hdsnet.hu</t>
     </r>
@@ -7407,6 +7681,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.emktv.hu</t>
     </r>
@@ -7431,6 +7706,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@datanet.hu</t>
     </r>
@@ -7442,6 +7718,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.gtsdatanet.hu</t>
     </r>
@@ -7466,6 +7743,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@invitel.co.hu</t>
     </r>
@@ -7477,6 +7755,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.invitel.hu</t>
     </r>
@@ -7501,6 +7780,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.magyartelecom.hu</t>
     </r>
@@ -7525,6 +7805,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.pgsm.hu</t>
     </r>
@@ -7549,6 +7830,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>pantel@pantel.hu</t>
     </r>
@@ -7560,6 +7842,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.pantel.hu</t>
     </r>
@@ -7577,6 +7860,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ugyfelszolgalat@tele2.hu</t>
     </r>
@@ -7588,6 +7872,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tele2.hu</t>
     </r>
@@ -7612,6 +7897,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>t-mobile@t-mobile.hu</t>
     </r>
@@ -7623,6 +7909,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.t-mobile.hu</t>
     </r>
@@ -7646,6 +7933,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vodafone.hu</t>
     </r>
@@ -7689,6 +7977,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>miana_l@telkom.co.id</t>
     </r>
@@ -7697,6 +7986,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -7706,6 +7996,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>adek@telkom.co.id</t>
     </r>
@@ -7714,6 +8005,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -7723,6 +8015,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>andarini@telkom.co.id</t>
     </r>
@@ -7734,6 +8027,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telkom.co.id</t>
     </r>
@@ -7759,6 +8053,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ruzzi.yussalla@indosat.com</t>
     </r>
@@ -7770,6 +8065,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.indosat.com</t>
     </r>
@@ -7833,6 +8129,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ierovante@rai.it</t>
     </r>
@@ -7844,6 +8141,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.raiway.rai.it</t>
     </r>
@@ -7868,6 +8166,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telecomitalia.it</t>
     </r>
@@ -7892,6 +8191,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cecilia.vicedomini@telecomitalia.it</t>
     </r>
@@ -7916,6 +8216,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>claudia.quaglione@telespazio.com</t>
     </r>
@@ -7943,6 +8244,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ermanno.berruto@mail.wind.it</t>
     </r>
@@ -7954,6 +8256,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.wind.it</t>
     </r>
@@ -7990,6 +8293,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mynakamura@accanetworks.com</t>
     </r>
@@ -8015,6 +8319,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>imai@b-sat.co.jp</t>
     </r>
@@ -8040,6 +8345,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>oyamamasumi@eaccess.net</t>
     </r>
@@ -8051,6 +8357,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.eaccess.net</t>
     </r>
@@ -8077,6 +8384,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kitayutaka@emobile.jp</t>
     </r>
@@ -8102,6 +8410,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>y-yokoyama@jsat.net</t>
     </r>
@@ -8127,6 +8436,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.kddi.com</t>
     </r>
@@ -8151,6 +8461,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>saito.t-gc@nhk.or.jp</t>
     </r>
@@ -8162,6 +8473,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.nhk.or.jp</t>
     </r>
@@ -8186,6 +8498,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>h-takata@nab.or.jp</t>
     </r>
@@ -8197,6 +8510,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.nab.or.jp</t>
     </r>
@@ -8221,6 +8535,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kikaku_all@ml.east.ntt.co.jp</t>
     </r>
@@ -8232,6 +8547,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ntt-east.co.jp/index_e.html</t>
     </r>
@@ -8256,6 +8572,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>international@ml.hq.west.ntt.co.jp</t>
     </r>
@@ -8267,6 +8584,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ntt-west.co.jp</t>
     </r>
@@ -8293,6 +8611,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>a-yamada@nri.co.jp</t>
     </r>
@@ -8304,6 +8623,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.nri.co.jp</t>
     </r>
@@ -8328,6 +8648,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sadata-tech@ntt.com</t>
     </r>
@@ -8339,6 +8660,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ntt.com</t>
     </r>
@@ -8366,6 +8688,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ueshimay@nttdata.co.jp</t>
     </r>
@@ -8391,6 +8714,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>furukawa@nttdocomo.co.jp</t>
     </r>
@@ -8402,6 +8726,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.nttdocomo.co.jp</t>
     </r>
@@ -8427,6 +8752,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sbmgrp-regulatory.jp.1@g.softbank.co.jp</t>
     </r>
@@ -8438,6 +8764,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.softbankmobile.co.jp</t>
     </r>
@@ -8458,6 +8785,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.softbankmobile.co.jp/en/index.html</t>
     </r>
@@ -8477,6 +8805,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">sbmgrp- </t>
     </r>
@@ -8486,6 +8815,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>regulatory.jp.1@g.softbank.co.jp</t>
     </r>
@@ -8510,6 +8840,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>miura.masaharu@superbird.co.jp</t>
     </r>
@@ -8534,6 +8865,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>shiokawa.hisayuki@tepco.co.jp</t>
     </r>
@@ -8545,6 +8877,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tepco.co.jp</t>
     </r>
@@ -8570,6 +8903,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>y-yano@willcom-inc.com</t>
     </r>
@@ -8597,6 +8931,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@batelco.jo</t>
     </r>
@@ -8622,6 +8957,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>saad.nasir@fastlink.com.jo</t>
     </r>
@@ -8633,6 +8969,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.fastlink.com.jo</t>
     </r>
@@ -8657,6 +8994,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@mirsal.com</t>
     </r>
@@ -8681,6 +9019,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@jt.com.jo</t>
     </r>
@@ -8706,6 +9045,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.xpress.jo</t>
     </r>
@@ -8731,6 +9071,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mobilecom.jo</t>
     </r>
@@ -8755,6 +9096,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>contact@umniah.com</t>
     </r>
@@ -8801,6 +9143,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>leeis@kt.com</t>
     </r>
@@ -8812,6 +9155,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.kt.com</t>
     </r>
@@ -8837,6 +9181,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>yskoo@lguplus.co.kr</t>
     </r>
@@ -8848,6 +9193,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.lguplus.co.kr</t>
     </r>
@@ -8871,6 +9217,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>int@nida.or.kr</t>
     </r>
@@ -8897,6 +9244,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cho@sktelecom.com</t>
     </r>
@@ -8908,6 +9256,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.sktelecom.com</t>
     </r>
@@ -8937,6 +9286,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@kntc-kw.com</t>
     </r>
@@ -8961,6 +9311,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.wataniya.com</t>
     </r>
@@ -8985,6 +9336,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mtc.vodafone.com</t>
     </r>
@@ -9024,6 +9376,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tatjanam@sam.gov.lv</t>
     </r>
@@ -9052,6 +9405,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>administrator@telecom.co.ls</t>
     </r>
@@ -9108,6 +9462,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>motjolopanen@etl.co.ls</t>
     </r>
@@ -9121,6 +9476,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">P.O. Box 12691
 </t>
@@ -9130,6 +9486,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">MASERU 100
 </t>
@@ -9139,6 +9496,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Tel: +266 2231 7466
 </t>
@@ -9148,6 +9506,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Fax: +266 2231 0410
 </t>
@@ -9157,6 +9516,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">E-mail: </t>
     </r>
@@ -9166,6 +9526,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>taelo@btlcomms.com</t>
     </r>
@@ -9183,6 +9544,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>taelo@btlcomms.com</t>
     </r>
@@ -9215,6 +9577,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@telia.lt</t>
     </r>
@@ -9238,6 +9601,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@telecentras.lt</t>
     </r>
@@ -9258,6 +9622,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@csc.lt</t>
     </r>
@@ -9281,6 +9646,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@digitela.lt</t>
     </r>
@@ -9304,6 +9670,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>bendraukime@bite.lt</t>
     </r>
@@ -9327,6 +9694,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@ntt.lt</t>
     </r>
@@ -9347,6 +9715,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@mediafoncs.lt</t>
     </r>
@@ -9367,6 +9736,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@penki.lt</t>
     </r>
@@ -9390,6 +9760,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tele2.lt@tele2.com</t>
     </r>
@@ -9410,6 +9781,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@teledema.lt</t>
     </r>
@@ -9433,6 +9805,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>office@ekofon.lt</t>
     </r>
@@ -9453,6 +9826,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@teletel.lt</t>
     </r>
@@ -9473,6 +9847,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>eurocom@eurocom.lt</t>
     </r>
@@ -9506,6 +9881,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">y.raveloarimalala@basic- </t>
     </r>
@@ -9515,6 +9891,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>international.com</t>
     </r>
@@ -9540,6 +9917,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>macauley.e@mg.celtel.com</t>
     </r>
@@ -9566,6 +9944,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ctmm@ctmm.mg</t>
     </r>
@@ -9592,6 +9971,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>dts@wanadoo.mg</t>
     </r>
@@ -9600,6 +9980,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -9609,6 +9990,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>pph@wanadoo.mg</t>
     </r>
@@ -9648,6 +10030,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>admin@fornet.com</t>
     </r>
@@ -9670,6 +10053,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>surfaccess@wanadoo.mg</t>
     </r>
@@ -9695,6 +10079,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>globalplus@dts.mg</t>
     </r>
@@ -9720,6 +10105,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>blueline@malagasy.com</t>
     </r>
@@ -9731,6 +10117,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Life.Com</t>
     </r>
@@ -9752,6 +10139,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>bvbl@iris.mg</t>
     </r>
@@ -9780,6 +10168,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>contact@orange.mg</t>
     </r>
@@ -9788,6 +10177,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> /  </t>
     </r>
@@ -9797,6 +10187,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>patrice.pezat@orange.mg</t>
     </r>
@@ -9823,6 +10214,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>siege@orchid.mg</t>
     </r>
@@ -9845,6 +10237,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>simicro@simicro.mg</t>
     </r>
@@ -9870,6 +10263,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ddl@gulfsat.mg</t>
     </r>
@@ -9884,6 +10278,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gulfsat@malagasy.com</t>
     </r>
@@ -9909,6 +10304,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>eugene.beckers@telma.mg</t>
     </r>
@@ -9936,6 +10332,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>vocalys@wanadoo.mg</t>
     </r>
@@ -9993,6 +10390,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ada@maltanet.net</t>
     </r>
@@ -10013,6 +10411,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mandy.calleja@go.com.mt</t>
     </r>
@@ -10034,6 +10433,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>dthake@ms.vanilla.net.mt</t>
     </r>
@@ -10080,6 +10480,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Alestra, S. de </t>
     </r>
@@ -10089,6 +10490,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>R.L.de</t>
     </r>
@@ -10097,6 +10499,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> C.V.</t>
     </r>
@@ -10137,6 +10540,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@astrum.com.mx</t>
     </r>
@@ -10705,6 +11109,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rrios@riosferrer.com.mx</t>
     </r>
@@ -10779,6 +11184,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ochoac@satmex.com</t>
     </r>
@@ -10896,6 +11302,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>lalonso@telecomm.net.mx</t>
     </r>
@@ -11049,6 +11456,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>wlcom@terra.com.mx</t>
     </r>
@@ -11077,6 +11485,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>petrascu@mtc.md</t>
     </r>
@@ -11088,6 +11497,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.moldtelecom.md</t>
     </r>
@@ -11115,6 +11525,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>m.peronnet@monaco-telecom.mc</t>
     </r>
@@ -11126,6 +11537,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.monaco-telecom.mc</t>
     </r>
@@ -11153,6 +11565,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@railcom.mn</t>
     </r>
@@ -11179,6 +11592,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>suvdanchimeg@mobicom.mn</t>
     </r>
@@ -11204,6 +11618,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>exreldep@mtcone.net</t>
     </r>
@@ -11230,6 +11645,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>contract@skytel.mn</t>
     </r>
@@ -11272,6 +11688,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>j.larhrib@iam.ma</t>
     </r>
@@ -11283,6 +11700,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.iam.ma</t>
     </r>
@@ -11330,6 +11748,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rajesh.joshi@ntc.net.np</t>
     </r>
@@ -11424,6 +11843,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Peggy.McConnell@telecom.co.nz</t>
     </r>
@@ -11435,6 +11855,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telecom.co.nz</t>
     </r>
@@ -11459,6 +11880,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>richard.horrell@team.telstraclear.co.nz</t>
     </r>
@@ -11483,6 +11905,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>hayden.glass@vodafone.com</t>
     </r>
@@ -11504,6 +11927,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Liz.reid@telco64.com</t>
     </r>
@@ -11550,6 +11974,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sonitel@intnet.ne</t>
     </r>
@@ -11601,6 +12026,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rolf.mkleby@telenor.com</t>
     </r>
@@ -11612,6 +12038,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.norkring.no</t>
     </r>
@@ -11625,6 +12052,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">P.O. Box 2444 Solli
 </t>
@@ -11634,6 +12062,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">0201 OSLO
 </t>
@@ -11643,6 +12072,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">Norway
 </t>
@@ -11652,6 +12082,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">E-mail: </t>
     </r>
@@ -11661,6 +12092,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kmr@schjodt.no</t>
     </r>
@@ -11672,6 +12104,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kmr@schjodt.no</t>
     </r>
@@ -11693,6 +12126,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>stmnorway@stmi.com</t>
     </r>
@@ -11704,6 +12138,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.stmi.com</t>
     </r>
@@ -11728,6 +12163,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>unn.duus-carlsen@telenor.com</t>
     </r>
@@ -11739,6 +12175,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telenor.com</t>
     </r>
@@ -11758,6 +12195,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>marco.villa@tyvak.com</t>
     </r>
@@ -11786,6 +12224,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Fadia.kindi@omantel.om</t>
     </r>
@@ -11797,6 +12236,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.omantel.net.com</t>
     </r>
@@ -12050,6 +12490,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cwp@cwpanama.com</t>
     </r>
@@ -12061,6 +12502,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.cwpanama.net</t>
     </r>
@@ -12113,6 +12555,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ir@globetel.com.ph</t>
     </r>
@@ -12138,6 +12581,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>esantonio@pldt.com.ph</t>
     </r>
@@ -12149,6 +12593,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.pldt.com.ph</t>
     </r>
@@ -12174,6 +12619,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rdibay@smart.com.ph</t>
     </r>
@@ -12204,6 +12650,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>magdalena.hamada@tekomunikacja.pl</t>
     </r>
@@ -12215,6 +12662,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tp.pl</t>
     </r>
@@ -12240,6 +12688,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>wieslaw.szymanski@telbank.pl</t>
     </r>
@@ -12264,6 +12713,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>krzysztof.silick@nask.pl</t>
     </r>
@@ -12288,6 +12738,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>w.radziszewski@tktelekom.pl</t>
     </r>
@@ -12312,6 +12763,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>przemyslaw.mach@plus.pl</t>
     </r>
@@ -12342,6 +12794,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>amutawa@qtel.com.qa</t>
     </r>
@@ -12353,6 +12806,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.qtel.com.qa</t>
     </r>
@@ -12530,6 +12984,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>anca.ciocirlan@romtelecom.ro</t>
     </r>
@@ -12541,6 +12996,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.romtelecom.ro</t>
     </r>
@@ -12620,6 +13076,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>m.andreev@ttk.ru</t>
     </r>
@@ -12644,6 +13101,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.orange-business.ru</t>
     </r>
@@ -12668,6 +13126,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>megafon@megafon.ru</t>
     </r>
@@ -12679,6 +13138,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.megafon.ru</t>
     </r>
@@ -12703,6 +13163,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mttinfor@mtt.ru</t>
     </r>
@@ -12727,6 +13188,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rostelecom@rt.ru</t>
     </r>
@@ -12754,6 +13216,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>artel@rwanda1.com</t>
     </r>
@@ -12765,6 +13228,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.artel.rw</t>
     </r>
@@ -12788,6 +13252,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mtnrwandacell.co.rw</t>
     </r>
@@ -12811,6 +13276,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@rwandatel.rw</t>
     </r>
@@ -12822,6 +13288,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.rwandatel.rw</t>
     </r>
@@ -12846,6 +13313,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rwanda@tele10.com</t>
     </r>
@@ -12854,6 +13322,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -12863,6 +13332,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tele10@rwanda1.com</t>
     </r>
@@ -12874,6 +13344,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tele10.com</t>
     </r>
@@ -12894,6 +13365,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.terracom.rw</t>
     </r>
@@ -12958,6 +13430,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@smt.sm</t>
     </r>
@@ -13047,6 +13520,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.atlasalbilad.com</t>
     </r>
@@ -13064,6 +13538,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.btc-networks.com</t>
     </r>
@@ -13088,6 +13563,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.bayanat.com.sa</t>
     </r>
@@ -13117,6 +13593,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.iccsat.com</t>
     </r>
@@ -13141,6 +13618,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.detasad.com.sa</t>
     </r>
@@ -13165,6 +13643,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.electronia.com</t>
     </r>
@@ -13186,6 +13665,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.farhan-hicap.com</t>
     </r>
@@ -13210,6 +13690,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.hicap-telecom.com</t>
     </r>
@@ -13234,6 +13715,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>m.ghorab@itc.sa</t>
     </r>
@@ -13245,6 +13727,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.itc.net.sa</t>
     </r>
@@ -13265,6 +13748,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.saudi-inteltec.com</t>
     </r>
@@ -13285,6 +13769,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.iridium.com</t>
     </r>
@@ -13309,6 +13794,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mobily.com.sa</t>
     </r>
@@ -13326,6 +13812,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.alharbitelecom.com</t>
     </r>
@@ -13346,6 +13833,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.saudinetlink.com</t>
     </r>
@@ -13370,6 +13858,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.stc.com.sa</t>
     </r>
@@ -13390,6 +13879,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.showtimearabia.com</t>
     </r>
@@ -13410,6 +13900,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.thuraya.com</t>
     </r>
@@ -13438,6 +13929,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>brelotte.ba@orange-sonatel.com</t>
     </r>
@@ -13471,6 +13963,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kabinet@telekom.rs</t>
     </r>
@@ -13482,6 +13975,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telekom.yu</t>
     </r>
@@ -13506,6 +14000,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>radmia.simic@telenor.rs</t>
     </r>
@@ -13517,6 +14012,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telenor.rs</t>
     </r>
@@ -13548,6 +14044,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.cw.com/seychelles</t>
     </r>
@@ -13572,6 +14069,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>airtel@seychelles.net</t>
     </r>
@@ -13583,6 +14081,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.airtel.sc</t>
     </r>
@@ -13648,6 +14147,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.africell.sl</t>
     </r>
@@ -13675,6 +14175,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>chansl@ml.com.sg</t>
     </r>
@@ -13712,6 +14213,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cannicel@starhub.com.sg</t>
     </r>
@@ -13787,6 +14289,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>dejan.strbenk@inlife.si</t>
     </r>
@@ -13811,6 +14314,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ic@mobitel.si</t>
     </r>
@@ -13835,6 +14339,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>andrej.spik@simobil.si</t>
     </r>
@@ -13859,6 +14364,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>roman.smidovnik@telekom.si</t>
     </r>
@@ -13883,6 +14389,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ic@tusmobil.si</t>
     </r>
@@ -13911,6 +14418,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>plaatp@telkom.co.za</t>
     </r>
@@ -13922,6 +14430,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telkom.co.za</t>
     </r>
@@ -13946,6 +14455,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mashis_m@mtn.co.za</t>
     </r>
@@ -13957,6 +14467,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mtn.co.za</t>
     </r>
@@ -13982,6 +14493,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ceo@vodacom.co.za</t>
     </r>
@@ -13993,6 +14505,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vodacom.co.za</t>
     </r>
@@ -14019,6 +14532,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>cmawela@multichoice.co.za</t>
     </r>
@@ -14030,6 +14544,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.orbicom.com</t>
     </r>
@@ -14054,6 +14569,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>tokot@sentech.co.za</t>
     </r>
@@ -14062,6 +14578,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -14071,6 +14588,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mokitimin@sentech.co.za</t>
     </r>
@@ -14082,6 +14600,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.sentech.co.za</t>
     </r>
@@ -14112,6 +14631,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gawan@areeba.com.sd</t>
     </r>
@@ -14138,6 +14658,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>m.ali@canar.com.sd</t>
     </r>
@@ -14149,6 +14670,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.canar.sd</t>
     </r>
@@ -14174,6 +14696,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kamalea@sudatel.net.sd</t>
     </r>
@@ -14185,6 +14708,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.sudatel.sd</t>
     </r>
@@ -14213,6 +14737,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ibrahim.zein@sdn-mobitel.com</t>
     </r>
@@ -14221,6 +14746,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> /
 </t>
@@ -14231,6 +14757,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>i.allhassan@sdn-mobitel.com</t>
     </r>
@@ -14254,6 +14781,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>hrsuriname@digicelgroup.com</t>
     </r>
@@ -14274,6 +14802,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@intelsur-uts.sr</t>
     </r>
@@ -14303,6 +14832,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@sptc.co.sz</t>
     </r>
@@ -14314,6 +14844,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.swazi.net</t>
     </r>
@@ -14355,6 +14886,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>per.frykner@gotanet.se</t>
     </r>
@@ -14390,6 +14922,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@tdcsong.se</t>
     </r>
@@ -14401,6 +14934,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.tdcsong.se</t>
     </r>
@@ -14446,6 +14980,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>staffan.bergsmark@teracom.se</t>
     </r>
@@ -14457,6 +14992,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.teracom.se</t>
     </r>
@@ -14481,6 +15017,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>robert.nilsson@maingate.se</t>
     </r>
@@ -14507,6 +15044,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>moibrahim@areeba.com.sy</t>
     </r>
@@ -14515,6 +15053,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> / </t>
     </r>
@@ -14524,6 +15063,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>roaming@areeba.com.sy</t>
     </r>
@@ -14549,6 +15089,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>bisher.mouhanna@syriatel.com.sy</t>
     </r>
@@ -14576,6 +15117,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ste-gm@net.sy</t>
     </r>
@@ -14603,6 +15145,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>sour@netrt.org</t>
     </r>
@@ -14648,6 +15191,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>frosina.gecevakocova@mt.com.mk</t>
     </r>
@@ -14672,6 +15216,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>nikola.ljusev@cosmofon.com.mk</t>
     </r>
@@ -14695,6 +15240,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>kontakt@mobimak.com.mk</t>
     </r>
@@ -14723,6 +15269,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>wbarque@togotel.net.tg</t>
     </r>
@@ -14780,6 +15327,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>hager.lamine@tunisiana.com</t>
     </r>
@@ -14804,6 +15352,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mohsen.nahdi@tunisietelecom.tn</t>
     </r>
@@ -14854,6 +15403,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.utel.com.ua/english</t>
     </r>
@@ -14875,6 +15425,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.dcc.ua</t>
     </r>
@@ -14896,6 +15447,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.kyivstar.net/site.php/en</t>
     </r>
@@ -14926,6 +15478,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>office@ukr-com.net</t>
     </r>
@@ -14937,6 +15490,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ukr-com.net</t>
     </r>
@@ -14958,6 +15512,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.umc.ua/eng/splash.php</t>
     </r>
@@ -14979,6 +15534,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ukrtelecom.ua</t>
     </r>
@@ -14999,6 +15555,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.goldentele.com</t>
     </r>
@@ -15036,6 +15593,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>alamiri@etisalat.ae</t>
     </r>
@@ -15063,6 +15621,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>j_nasser@thuraya.com</t>
     </r>
@@ -15087,6 +15646,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rashid.alahmedi@du.ae</t>
     </r>
@@ -15134,6 +15694,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>linda.j.matthews@bt.com</t>
     </r>
@@ -15258,6 +15819,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>jonas_enerberg@inmarsat.com</t>
     </r>
@@ -15269,6 +15831,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.inmarsat.com</t>
     </r>
@@ -15314,6 +15877,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>daragh.mcdermott@jerseytelecom.com</t>
     </r>
@@ -15375,6 +15939,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>nick.sampson@orange-ftrgroup.com</t>
     </r>
@@ -15386,6 +15951,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.orange.com</t>
     </r>
@@ -15586,6 +16152,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gcuniolo@antel.com.uy</t>
     </r>
@@ -15597,6 +16164,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.antel.com.uy</t>
     </r>
@@ -15631,6 +16199,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.cantv.com.ve</t>
     </r>
@@ -15657,6 +16226,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.convergia.com</t>
     </r>
@@ -15683,6 +16253,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.digitel.com.ve</t>
     </r>
@@ -15708,6 +16279,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.inter.com.ve</t>
     </r>
@@ -15734,6 +16306,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.cvgtelecom.com.ve</t>
     </r>
@@ -15761,6 +16334,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.123.com.ve</t>
     </r>
@@ -15788,6 +16362,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.solollama.com</t>
     </r>
@@ -15813,6 +16388,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.multiphone.net.ve</t>
     </r>
@@ -15854,6 +16430,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.movistar.com.ve</t>
     </r>
@@ -15880,6 +16457,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.telecorp.net.ve</t>
     </r>
@@ -15906,6 +16484,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.movilnet.com.ve</t>
     </r>
@@ -15932,6 +16511,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ngt.com.ve</t>
     </r>
@@ -15958,6 +16538,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.net-uno.net</t>
     </r>
@@ -15983,6 +16564,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.intercall.com.ve</t>
     </r>
@@ -16011,6 +16593,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ph@cnet.vn</t>
     </r>
@@ -16022,6 +16605,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.cnet.vn</t>
     </r>
@@ -16047,6 +16631,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>web-info@fpt.vn</t>
     </r>
@@ -16058,6 +16643,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.fpt.net</t>
     </r>
@@ -16082,6 +16668,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>hanoitelecom@hinet.net.vn</t>
     </r>
@@ -16093,6 +16680,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.hinet.net.vn</t>
     </r>
@@ -16119,6 +16707,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>saigonpostel@saigonnet.vn</t>
     </r>
@@ -16130,6 +16719,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.saigonpostel.com.vn</t>
     </r>
@@ -16154,6 +16744,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>vishipel@hn.vnn.vn</t>
     </r>
@@ -16165,6 +16756,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vishipel.com.vn</t>
     </r>
@@ -16190,6 +16782,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.mobifone.com.vn</t>
     </r>
@@ -16216,6 +16809,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>vtcvod@vtc.vn</t>
     </r>
@@ -16227,6 +16821,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vtc.com.vn</t>
     </r>
@@ -16251,6 +16846,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>vnpt_website@vnpt.com.vn</t>
     </r>
@@ -16262,6 +16858,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vnpt.com.vn</t>
     </r>
@@ -16286,6 +16883,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>Phamdominhhuong@vti.com.vn</t>
     </r>
@@ -16312,6 +16910,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.vinaphone.com.vn</t>
     </r>
@@ -16337,6 +16936,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>gopy@viettel.com.vn</t>
     </r>
@@ -16348,6 +16948,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.viettel.com.vn</t>
     </r>
@@ -16375,6 +16976,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>o.binshihab@y.net.ye</t>
     </r>
@@ -16386,6 +16988,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.teleyemen.com.ye</t>
     </r>
@@ -16411,6 +17014,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>ptc@y.net.ye</t>
     </r>
@@ -16422,6 +17026,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.ptc.gov.ye</t>
     </r>
@@ -16448,6 +17053,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>mohammed.al-nadish@sabafon.com.ye</t>
     </r>
@@ -16459,6 +17065,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.sabafon.com</t>
     </r>
@@ -16496,6 +17103,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>md@zamtel.zm</t>
     </r>
@@ -16507,6 +17115,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>www.zamtel.zm</t>
     </r>
@@ -16531,6 +17140,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>caroline.sandura@telone.co.zw</t>
     </r>
@@ -16555,6 +17165,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>czinhara@econet.co.zw</t>
     </r>
@@ -16580,6 +17191,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>rkangai@netone.co.zw</t>
     </r>
@@ -16605,6 +17217,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Helvetica Neue"/>
+        <family val="2"/>
       </rPr>
       <t>info@telecelzim.co.zw</t>
     </r>
@@ -16761,13 +17374,16 @@
   </si>
   <si>
     <t>País o área geográfica</t>
+  </si>
+  <si>
+    <t>type=array</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -16778,12 +17394,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -16925,7 +17549,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -16975,6 +17599,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -18139,8 +18766,8 @@
   </sheetPr>
   <dimension ref="A1:IV1064"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -18376,6 +19003,9 @@
     <row r="30" spans="1:8" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
         <v>3542</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>3585</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
